--- a/practica2/CalibrarVelocidades.xlsx
+++ b/practica2/CalibrarVelocidades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -114,13 +114,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -152,36 +152,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES_tradnl"/>
-              <a:t>Motor</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES_tradnl" baseline="0"/>
-              <a:t> A</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES_tradnl"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -221,8 +191,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>MOTOR A</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -295,34 +268,34 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>194.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>392.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>590.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>788.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>1184.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>1381.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>1533.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>1533.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>1477.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,11 +310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-58737552"/>
-        <c:axId val="74782608"/>
+        <c:axId val="2113671552"/>
+        <c:axId val="-2051452336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-58737552"/>
+        <c:axId val="2113671552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -361,7 +334,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -398,16 +370,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74782608"/>
+        <c:crossAx val="-2051452336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74782608"/>
+        <c:axId val="-2051452336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
-          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -461,7 +431,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58737552"/>
+        <c:crossAx val="2113671552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -525,35 +495,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES_tradnl"/>
-              <a:t>Motor</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES_tradnl" baseline="0"/>
-              <a:t> B</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -593,6 +534,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>MOTOR B</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -667,34 +611,34 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>188.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>387.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>585.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>784.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>980.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>1179.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>1376.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>1517.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>1510.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>1553.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,11 +653,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95746016"/>
-        <c:axId val="69290736"/>
+        <c:axId val="-2049762944"/>
+        <c:axId val="-2059950688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95746016"/>
+        <c:axId val="-2049762944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +677,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -770,16 +713,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69290736"/>
+        <c:crossAx val="-2059950688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69290736"/>
+        <c:axId val="-2059950688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
-          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -797,7 +738,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -834,7 +774,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95746016"/>
+        <c:crossAx val="-2049762944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1999,20 +1939,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2030,22 +1970,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2328,185 +2266,185 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
+      <c r="C4" s="1">
+        <v>194</v>
+      </c>
+      <c r="D4" s="1">
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
+      <c r="C5" s="1">
+        <v>392</v>
+      </c>
+      <c r="D5" s="1">
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>30</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+      <c r="C6" s="1">
+        <v>590</v>
+      </c>
+      <c r="D6" s="1">
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>40</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>40</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="C7" s="1">
+        <v>788</v>
+      </c>
+      <c r="D7" s="1">
+        <v>784</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>50</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>50</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
+      <c r="C8" s="1">
+        <v>985</v>
+      </c>
+      <c r="D8" s="1">
+        <v>980</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>60</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>60</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
+      <c r="C9" s="1">
+        <v>1184</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1179</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>70</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>70</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
+      <c r="C10" s="1">
+        <v>1381</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1376</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>80</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>80</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
+      <c r="C11" s="1">
+        <v>1533</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1517</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>90</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>90</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
+      <c r="C12" s="1">
+        <v>1533</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1510</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>100</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>100</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
+      <c r="C13" s="1">
+        <v>1477</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1553</v>
       </c>
     </row>
   </sheetData>

--- a/practica2/CalibrarVelocidades.xlsx
+++ b/practica2/CalibrarVelocidades.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>MOTOR A</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>TABLA VELOCIDADES</t>
+  </si>
+  <si>
+    <t>RADIANES A</t>
+  </si>
+  <si>
+    <t>RADIANES B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENDIENTE </t>
   </si>
 </sst>
 </file>
@@ -85,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -108,11 +117,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,7 +149,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -260,7 +293,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$13</c:f>
+              <c:f>Hoja1!$G$3:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -268,34 +301,34 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194.0</c:v>
+                  <c:v>1.692967944444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>392.0</c:v>
+                  <c:v>3.420842444444444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>590.0</c:v>
+                  <c:v>5.148716944444445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>788.0</c:v>
+                  <c:v>6.876591444444444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>985.0</c:v>
+                  <c:v>8.595739305555554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1184.0</c:v>
+                  <c:v>10.33234044444444</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1381.0</c:v>
+                  <c:v>12.05148830555556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1533.0</c:v>
+                  <c:v>13.37793741666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1533.0</c:v>
+                  <c:v>13.37793741666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1477.0</c:v>
+                  <c:v>12.88924563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,7 +636,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$13</c:f>
+              <c:f>Hoja1!$H$3:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -611,34 +644,34 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>188.0</c:v>
+                  <c:v>1.640608111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>387.0</c:v>
+                  <c:v>3.37720925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>585.0</c:v>
+                  <c:v>5.10508375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>784.0</c:v>
+                  <c:v>6.841684888888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>980.0</c:v>
+                  <c:v>8.55210611111111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1179.0</c:v>
+                  <c:v>10.28870725</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1376.0</c:v>
+                  <c:v>12.00785511111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1517.0</c:v>
+                  <c:v>13.23831119444444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1510.0</c:v>
+                  <c:v>13.17722472222222</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1553.0</c:v>
+                  <c:v>13.55247019444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,14 +1974,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2263,23 +2296,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2292,8 +2332,27 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3">
+        <f>(G5-G4)/(A5-A4)</f>
+        <v>0.17278745000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -2306,8 +2365,24 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
+      <c r="E3" s="1">
+        <f>C3*3.14159/180</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f>D3*3.14159/180</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f xml:space="preserve"> E3/2</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f>F3/2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -2320,8 +2395,24 @@
       <c r="D4" s="1">
         <v>188</v>
       </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E13" si="0">C4*3.14159/180</f>
+        <v>3.3859358888888886</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F13" si="1">D4*3.14159/180</f>
+        <v>3.2812162222222221</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G13" si="2" xml:space="preserve"> E4/2</f>
+        <v>1.6929679444444443</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H13" si="3">F4/2</f>
+        <v>1.640608111111111</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -2334,8 +2425,24 @@
       <c r="D5" s="1">
         <v>387</v>
       </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8416848888888886</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.7544184999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <f xml:space="preserve"> E5/2</f>
+        <v>3.4208424444444443</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3772092499999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>30</v>
       </c>
@@ -2348,8 +2455,24 @@
       <c r="D6" s="1">
         <v>585</v>
       </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>10.297433888888889</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>10.210167500000001</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1487169444444447</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>5.1050837500000004</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>40</v>
       </c>
@@ -2362,8 +2485,24 @@
       <c r="D7" s="1">
         <v>784</v>
       </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>13.753182888888889</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>13.683369777777777</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>6.8765914444444443</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8416848888888886</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>50</v>
       </c>
@@ -2376,8 +2515,24 @@
       <c r="D8" s="1">
         <v>980</v>
       </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>17.191478611111108</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>17.10421222222222</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5957393055555542</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5521061111111099</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>60</v>
       </c>
@@ -2390,8 +2545,24 @@
       <c r="D9" s="1">
         <v>1179</v>
       </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>20.664680888888888</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>20.5774145</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>10.332340444444444</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>10.28870725</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>70</v>
       </c>
@@ -2404,8 +2575,24 @@
       <c r="D10" s="1">
         <v>1376</v>
       </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>24.10297661111111</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>24.015710222222221</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>12.051488305555555</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>12.007855111111111</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>80</v>
       </c>
@@ -2418,8 +2605,24 @@
       <c r="D11" s="1">
         <v>1517</v>
       </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>26.755874833333333</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>26.476622388888888</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>13.377937416666667</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>13.238311194444444</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>90</v>
       </c>
@@ -2432,8 +2635,24 @@
       <c r="D12" s="1">
         <v>1510</v>
       </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>26.755874833333333</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>26.354449444444445</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>13.377937416666667</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>13.177224722222222</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>100</v>
       </c>
@@ -2445,11 +2664,27 @@
       </c>
       <c r="D13" s="1">
         <v>1553</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>25.778491277777775</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>27.104940388888888</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>12.889245638888887</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>13.552470194444444</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/practica2/CalibrarVelocidades.xlsx
+++ b/practica2/CalibrarVelocidades.xlsx
@@ -206,6 +206,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -216,12 +222,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,11 +405,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103257984"/>
-        <c:axId val="103272448"/>
+        <c:axId val="87397888"/>
+        <c:axId val="87399808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103257984"/>
+        <c:axId val="87397888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,12 +466,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103272448"/>
+        <c:crossAx val="87399808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103272448"/>
+        <c:axId val="87399808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +528,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103257984"/>
+        <c:crossAx val="87397888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -744,11 +744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104664064"/>
-        <c:axId val="104690816"/>
+        <c:axId val="87952000"/>
+        <c:axId val="87974656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104664064"/>
+        <c:axId val="87952000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,12 +805,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104690816"/>
+        <c:crossAx val="87974656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104690816"/>
+        <c:axId val="87974656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,7 +867,672 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104664064"/>
+        <c:crossAx val="87952000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MOTOR A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.640608111111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3423026944444443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0876304722222221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8067783333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5346528333333325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.253800694444445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.972948555555556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10989568"/>
+        <c:axId val="10991488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10989568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10991488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="10991488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10989568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MOTOR B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$3:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.64933475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3772092499999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0876304722222221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8155049722222216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.543379472222222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.253800694444445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.972948555555556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="11739520"/>
+        <c:axId val="11741440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="11739520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11741440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="11741440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11739520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -973,6 +1638,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1236,7 +1965,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1246,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1256,20 +1985,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1496,10 +2225,10 @@
         <f t="shared" si="5"/>
         <v>0.17038762430555554</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1578,10 +2307,10 @@
         <f t="shared" si="5"/>
         <v>0.17089667824074076</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1620,11 +2349,11 @@
         <f t="shared" si="5"/>
         <v>0.17104212222222223</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="9">
         <f>SLOPE(A3:A9,G3:G9)</f>
         <v>5.8010345394965368</v>
       </c>
-      <c r="N9" s="13"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1663,10 +2392,10 @@
         <f t="shared" si="5"/>
         <v>0.15315251249999998</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1705,11 +2434,11 @@
         <f t="shared" si="5"/>
         <v>0.13603860401234569</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="9">
         <f>SLOPE(B3:B9,H3:H9)</f>
         <v>5.8115569162125311</v>
       </c>
-      <c r="N11" s="13"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">

--- a/practica2/CalibrarVelocidades.xlsx
+++ b/practica2/CalibrarVelocidades.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JavierAranda/Documents/GITHUB/Robotica/practica2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -279,7 +287,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -324,34 +332,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,31 +374,31 @@
                   <c:v>1.640608111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3423026944444443</c:v>
+                  <c:v>3.342302694444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0876304722222221</c:v>
+                  <c:v>5.087630472222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8067783333333329</c:v>
+                  <c:v>6.806778333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5346528333333325</c:v>
+                  <c:v>8.534652833333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.253800694444445</c:v>
+                  <c:v>10.25380069444445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.972948555555556</c:v>
+                  <c:v>11.97294855555556</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.182387888888888</c:v>
+                  <c:v>12.18238788888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.199841166666667</c:v>
+                  <c:v>12.19984116666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.173661249999999</c:v>
+                  <c:v>12.17366125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,11 +413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="87397888"/>
-        <c:axId val="87399808"/>
+        <c:axId val="1530086640"/>
+        <c:axId val="1530088688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87397888"/>
+        <c:axId val="1530086640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,15 +471,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87399808"/>
+        <c:crossAx val="1530088688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87399808"/>
+        <c:axId val="1530088688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,10 +533,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87397888"/>
+        <c:crossAx val="1530086640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -566,7 +574,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -618,7 +626,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -663,34 +671,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,31 +713,31 @@
                   <c:v>1.64933475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3772092499999999</c:v>
+                  <c:v>3.37720925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0876304722222221</c:v>
+                  <c:v>5.087630472222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8155049722222216</c:v>
+                  <c:v>6.815504972222222</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8.543379472222222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.253800694444445</c:v>
+                  <c:v>10.25380069444445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.972948555555556</c:v>
+                  <c:v>11.97294855555556</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.252200999999998</c:v>
+                  <c:v>12.252201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.243474361111112</c:v>
+                  <c:v>12.24347436111111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.208567805555553</c:v>
+                  <c:v>12.20856780555555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,11 +752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="87952000"/>
-        <c:axId val="87974656"/>
+        <c:axId val="1530122704"/>
+        <c:axId val="1530125184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87952000"/>
+        <c:axId val="1530122704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,15 +810,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87974656"/>
+        <c:crossAx val="1530125184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87974656"/>
+        <c:axId val="1530125184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,10 +872,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87952000"/>
+        <c:crossAx val="1530122704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -905,7 +913,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -957,7 +965,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1019,22 +1027,22 @@
                   <c:v>1.640608111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3423026944444443</c:v>
+                  <c:v>3.342302694444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0876304722222221</c:v>
+                  <c:v>5.087630472222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8067783333333329</c:v>
+                  <c:v>6.806778333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5346528333333325</c:v>
+                  <c:v>8.534652833333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.253800694444445</c:v>
+                  <c:v>10.25380069444445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.972948555555556</c:v>
+                  <c:v>11.97294855555556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,25 +1054,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,11 +1087,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="10989568"/>
-        <c:axId val="10991488"/>
+        <c:axId val="1451469600"/>
+        <c:axId val="1451450672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="10989568"/>
+        <c:axId val="1451469600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,15 +1145,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10991488"/>
+        <c:crossAx val="1451450672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10991488"/>
+        <c:axId val="1451450672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,10 +1207,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10989568"/>
+        <c:crossAx val="1451469600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1240,7 +1248,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1292,7 +1300,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1349,22 +1357,22 @@
                   <c:v>1.64933475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3772092499999999</c:v>
+                  <c:v>3.37720925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0876304722222221</c:v>
+                  <c:v>5.087630472222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8155049722222216</c:v>
+                  <c:v>6.815504972222222</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8.543379472222222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.253800694444445</c:v>
+                  <c:v>10.25380069444445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.972948555555556</c:v>
+                  <c:v>11.97294855555556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,25 +1384,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,11 +1417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="11739520"/>
-        <c:axId val="11741440"/>
+        <c:axId val="1451378016"/>
+        <c:axId val="1451374464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11739520"/>
+        <c:axId val="1451378016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,15 +1475,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11741440"/>
+        <c:crossAx val="1451374464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="11741440"/>
+        <c:axId val="1451374464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,10 +1537,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11739520"/>
+        <c:crossAx val="1451378016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1570,7 +1578,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1965,7 +1973,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1975,13 +1983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -2000,7 +2008,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2051,7 +2059,7 @@
         <v>5.8993289586543938</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -2108,7 +2116,7 @@
         <v>5.9143353621940289</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -2148,7 +2156,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -2188,7 +2196,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -2230,7 +2238,7 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -2270,7 +2278,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>60</v>
       </c>
@@ -2312,7 +2320,7 @@
       </c>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>70</v>
       </c>
@@ -2355,7 +2363,7 @@
       </c>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>80</v>
       </c>
@@ -2397,7 +2405,7 @@
       </c>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>90</v>
       </c>
@@ -2440,7 +2448,7 @@
       </c>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>100</v>
       </c>
